--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776604.436479264</v>
+        <v>3774032.481961357</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>206.0963641532423</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>149.8794763036715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>28.49513028554884</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>109.4422623037117</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758681</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>14.92158678358339</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042239</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>119.8099036979376</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162933</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356922</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>71.76895293959856</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1386.090004781549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.090004781549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1386.090004781549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.301752183305</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>589.3158473936974</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>576.7355737986852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2668.36613113383</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.731464105892</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.731464105892</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.731464105892</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.731464105892</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.265705844813</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.126373869001</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>74.811886630977</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>74.811886630977</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.192801278527</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661912</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837981</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064339</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064339</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064339</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>565.7099969556945</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>417.7969033733013</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,10 +5355,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
         <v>352.5519571452614</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6470,19 +6470,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795858</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>415.5933575433587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>415.5933575433587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>248.3972582582387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050831</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.286211229005706e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>130.4994612393479</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.241159265644</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>68.52575990662532</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577093</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670463</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670454</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670478</v>
+        <v>5067.59260167043</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167043</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670466</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670466</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461662</v>
+        <v>-93901.78183461635</v>
       </c>
       <c r="C6" t="n">
+        <v>496066.097379928</v>
+      </c>
+      <c r="D6" t="n">
         <v>496066.0973799279</v>
       </c>
-      <c r="D6" t="n">
-        <v>496066.0973799283</v>
-      </c>
       <c r="E6" t="n">
-        <v>-283773.6304777808</v>
+        <v>-283808.3684032161</v>
       </c>
       <c r="F6" t="n">
-        <v>660599.1472799284</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="G6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="H6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544929</v>
       </c>
       <c r="I6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544922</v>
       </c>
       <c r="J6" t="n">
-        <v>484175.9280873356</v>
+        <v>484141.1901618994</v>
       </c>
       <c r="K6" t="n">
-        <v>660599.1472799284</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="L6" t="n">
-        <v>660599.1472799286</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="M6" t="n">
-        <v>536390.63657187</v>
+        <v>536355.8986464345</v>
       </c>
       <c r="N6" t="n">
-        <v>660599.1472799287</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="O6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="P6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544928</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245875</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>207.6878058675526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>136.6435220329195</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>145.9205825234227</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>107.0060580539461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831828</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,73 +28327,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32315,10 +32315,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518786</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909884</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,16 +33986,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730095</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,10 +35963,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074342</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
